--- a/tests/13_Data_Delete_Activity_News.xlsx
+++ b/tests/13_Data_Delete_Activity_News.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8FC0C-00E3-4D2D-AA76-819234F3224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="ตารางที่ TC013-EC" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="ตารางที่ TC013-TC" state="visible" r:id="rId5"/>
+    <sheet name="ตารางที่ TC013-EC" sheetId="1" r:id="rId1"/>
+    <sheet name="ตารางที่ TC013-TC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -32,18 +33,12 @@
     <t>TID</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>กดปุ่มลบข่าวสาร</t>
   </si>
   <si>
     <t>คุณแน่ใจหรือว่าต้องการลบข่าวสารนี้?</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Check Item</t>
   </si>
   <si>
@@ -105,33 +100,39 @@
   </si>
   <si>
     <t>Close Browser</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Pass/Fail </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Tahoma"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="12"/>
-      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="4">
@@ -143,7 +144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,9 +336,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,9 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,14 +360,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -647,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.09765625" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
@@ -680,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,19 +710,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,19 +734,27 @@
       <c r="F3" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.19921875" style="4" customWidth="1"/>
@@ -734,21 +764,21 @@
     <col min="6" max="6" width="30.296875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>2</v>
@@ -759,95 +789,95 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5" t="s">
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5" t="s">
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5" t="s">
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5" t="s">
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="25"/>
     </row>
   </sheetData>
